--- a/tabla.xlsx
+++ b/tabla.xlsx
@@ -431,14 +431,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>temperatura</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fraccion_molar</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_especie</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>presion_total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>presion_parcial</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>especie_quimica</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>detalle</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>reactivo_limitante</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cinetica Liquido Ejercicio Simple</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -449,14 +542,287 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>otra_propiedad</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_especie</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>especie_quimica</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tiempo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>concentracion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>conversion_reactivo_limitante</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>id_condiciones_iniciales</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_reaccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>reactivo_limitante</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ReaccionSimple</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reactivo_limitante </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ReaccionSimple </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reactivo_limitante </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ReaccionSimple </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reactivo_limitante </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ReaccionSimple </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reactivo_limitante </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ReaccionSimple </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">reactivo_limitante </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ReaccionSimple </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -478,19 +844,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>nombre_data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nombre_data</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>fecha</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>detalle</t>
@@ -498,18 +864,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Whitten_e16.10_p636</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>27/07/2024</t>
         </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,19 +905,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>especie_quimica</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>formula</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>detalle</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>especie_quimica</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>nombre_reaccion</t>
@@ -559,12 +925,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>coeficiente_estequiometrico</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -581,12 +947,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>reactivo principal o limitante</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -614,24 +980,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>produto</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>ReaccionSimple</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -647,24 +1013,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>produto</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>ReaccionSimple</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -714,12 +1080,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>tiempo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>tiempo</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -752,13 +1118,13 @@
       <c r="D2" t="n">
         <v>0.08210000000000001</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>min</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -782,14 +1148,161 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_data_salida</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>id_condiciones_iniciales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id_registro_unidades</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_data</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>delta_n_reaccion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_especie</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>constante_cinetica</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>modelo_cinetico</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>detalles</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>id_nombre_data</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>r_utilizada</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_reaccion</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>epsilon_reactivo_limitante</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>especie_quimica</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>orden_reaccion</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_calculo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modelar_Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Whitten_e16.10_p636</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>ReaccionSimple</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
